--- a/Riddles.xlsx
+++ b/Riddles.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niharika Sri Parasa\PycharmProjects\EvalApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAFA16B-A079-415B-B94C-4563BB73FA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E1990-5A58-4FEF-81F4-83548619CD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{321D94BD-E9E1-46B7-AE09-3A78A9951744}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>S.NO</t>
   </si>
@@ -42,30 +43,10 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>I am related to embryonic development.
-I am related to multicellular eukaryotic organisms.
-I breathe oxygen.
-Who am I ?</t>
-  </si>
-  <si>
     <t>Easy</t>
   </si>
   <si>
-    <t>I am related to mammal but I am not an elephant.
-I am related to domestic animals but I am not a dog.
-I am related to feral but I am not a horse.
-Who am I ?</t>
-  </si>
-  <si>
     <t>Difficult</t>
-  </si>
-  <si>
-    <t>I am dimorphic
-,I am related to polecatferret hybrids
-,I am related to hybridize</t>
-  </si>
-  <si>
-    <t>Animal</t>
   </si>
   <si>
     <t>Ferret</t>
@@ -108,15 +89,6 @@
   </si>
   <si>
     <t>Dinosaur</t>
-  </si>
-  <si>
-    <t>I am related to abundant terrestial carnivore.
-I have a starch-rich diet.
-I am related to therapeutic roles.
-Who am I ?</t>
-  </si>
-  <si>
-    <t>Dog</t>
   </si>
   <si>
     <t>I have transparent wings.
@@ -352,6 +324,9 @@
   </si>
   <si>
     <t>I am related to acquatic mammals,I am related to captive killer whales,I am related to island film series.</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -706,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BABDDC3-4B47-4A86-82AB-612C4768A386}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:J29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -740,44 +715,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -785,27 +757,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -813,13 +785,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -827,41 +799,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -869,27 +841,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -897,13 +869,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -911,13 +883,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -925,13 +897,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -939,231 +911,214 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
       <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966B4AFE-9586-4847-84F3-E78462A255FA}">
+  <dimension ref="A3:F8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="3" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="288" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="331.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>